--- a/biology/Botanique/Maripa_(Convolvulaceae)/Maripa_(Convolvulaceae).xlsx
+++ b/biology/Botanique/Maripa_(Convolvulaceae)/Maripa_(Convolvulaceae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maripa est un genre de plantes à fleurs lianescentes ligneuses néotropicale, appartenant à la famille des Convolvulaceae et dont l'espèce type est Maripa scandens Aubl.. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)                (21 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)                (21 février 2021) :
 Maripa axilliflora Mart. ex Meisn. (1869)
 Maripa densiflora Benth. (1846)
 Maripa elongata Ducke (1938)
@@ -536,7 +550,7 @@
 Maripa stellulata Steyerm. (1968)
 Maripa violacea (Aubl.) Ooststr. ex Lanj. &amp; Uittien (1940)
 Maripa williamsii Ooststr. (1933)
-Selon Tropicos                                           (21 février 2021)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 février 2021) (Attention liste brute contenant possiblement des synonymes) :
 Maripa acuminata Rusby
 Maripa axilliflora Mart. ex Meisn.
 Maripa cayennensis Meisn.
@@ -600,9 +614,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « "MARIPA. (Tabula 91.) 
 CAL. Perianthium monophyllum, profundè quinquepartitum ; laciniis ſubrotundis, concavis, mutuò incumbentibus.
 COR. monopetala, tubuloſa; tubus longus, baſi ampliatus, receptaculo germinis inſertus ; faux patens, ventricoſa ; limbus quinquefidus, lobis patulis, ſubrotundis, crenatis.
